--- a/참고자료.xlsx
+++ b/참고자료.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\AI_Spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D240E-0A54-415C-B184-37384FC10DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CCD5D-ED28-412B-8670-379BD2B309F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
+    <workbookView xWindow="42585" yWindow="3150" windowWidth="13080" windowHeight="13785" activeTab="5" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,9 +30,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>SSE는 군집내의 최소화는 고려하고 있으나 군집간의 거리 최소화는 고려하지 않는 한계  -&gt; 극복 : 실루엣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scaler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_pressure 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,13 +92,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,9 +130,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,6 +775,285 @@
         <a:xfrm>
           <a:off x="29935714" y="7756071"/>
           <a:ext cx="9583487" cy="6154009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>192357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7117917E-8E9D-3F97-29F4-799B3467213B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9783536" cy="5295036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>15140</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCBA5E4-8BAE-67BD-9A4B-ED63359762D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218964" y="0"/>
+          <a:ext cx="10887247" cy="5355178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>16488</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>168218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311516D8-0EB1-B0A8-AFAB-87FD08D9B41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10218964" y="5510893"/>
+          <a:ext cx="10888595" cy="6087325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>410781</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A905C162-A8B9-3F52-AD73-3EB95FCB4EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8640381" cy="5868219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152996</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{326AA184-C101-6CD0-A29A-9B0A7FD54C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4267796" cy="4124901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>305225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E5B19C-50C4-BFDB-F702-BC864C1EF50B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="0"/>
+          <a:ext cx="3048425" cy="3991532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F657BE23-4505-4DF3-B1FE-FE68F99A609E}">
   <dimension ref="Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -1053,4 +1396,375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC55CA1-AC99-423D-8E16-D8DF4172B1A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7672D426-10B9-4B1A-8A09-B713092B856E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456735BB-9C05-453F-B6E2-02DC2932E3F8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CAFD36-8EEE-4015-BF4C-7F975B82DF24}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="8" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1">
+        <v>110</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1">
+        <v>143</v>
+      </c>
+      <c r="F6" s="2">
+        <v>71.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>269</v>
+      </c>
+      <c r="E8" s="1">
+        <v>203</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>174</v>
+      </c>
+      <c r="E9" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>406</v>
+      </c>
+      <c r="E10" s="1">
+        <v>211</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>570</v>
+      </c>
+      <c r="E12" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>343</v>
+      </c>
+      <c r="E13" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>945</v>
+      </c>
+      <c r="E14" s="1">
+        <v>544</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.83220000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1149</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1407</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.65210000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>832</v>
+      </c>
+      <c r="E16" s="1">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/참고자료.xlsx
+++ b/참고자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\AI_Spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CCD5D-ED28-412B-8670-379BD2B309F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE4577-1EC1-48BD-930E-AD4AE2A736BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42585" yWindow="3150" windowWidth="13080" windowHeight="13785" activeTab="5" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="5" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>SSE는 군집내의 최소화는 고려하고 있으나 군집간의 거리 최소화는 고려하지 않는 한계  -&gt; 극복 : 실루엣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,7 +68,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>out_pressure 수정</t>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA그룹핑 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_pressure 누락 칼럼 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train_silhouette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_silhouette</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -130,17 +159,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1448,319 +1483,511 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CAFD36-8EEE-4015-BF4C-7F975B82DF24}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="15.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="48" style="1" customWidth="1"/>
+    <col min="11" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>0.05</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>13</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>0.05</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>61</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>110</v>
       </c>
-      <c r="F3" s="2">
+      <c r="I3" s="1">
         <v>0.68400000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>0.1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>0.1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>17</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>82</v>
       </c>
-      <c r="F5" s="2">
+      <c r="I5" s="1">
         <v>0.64400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>0.03</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>162</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <v>143</v>
       </c>
-      <c r="F6" s="2">
+      <c r="I6" s="1">
         <v>71.97</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>0.05</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>165</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>0.04</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>269</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <v>203</v>
       </c>
-      <c r="F8" s="2">
+      <c r="I8" s="1">
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>0.04</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>174</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>406</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>211</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>123</v>
+      </c>
+      <c r="G11" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>570</v>
+      </c>
+      <c r="G12" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>343</v>
+      </c>
+      <c r="G13" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>945</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>544</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1">
+        <v>0.83220000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1149</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1407</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.65210000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>831</v>
+      </c>
+      <c r="G16" s="1">
+        <v>446</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="5">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>945</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="G17" s="5">
+        <v>529</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.82040000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1011</v>
+      </c>
+      <c r="G18" s="1">
+        <v>893</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.71870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="E19" s="1">
+        <v>979</v>
+      </c>
+      <c r="G19" s="1">
+        <v>695</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1">
-        <v>123</v>
-      </c>
-      <c r="E11" s="1">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G20" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>570</v>
-      </c>
-      <c r="E12" s="1">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>343</v>
-      </c>
-      <c r="E13" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>945</v>
-      </c>
-      <c r="E14" s="1">
-        <v>544</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.83220000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C15" s="1">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1149</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1407</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.65210000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>832</v>
-      </c>
-      <c r="E16" s="1">
-        <v>462</v>
+      <c r="H20" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.49859999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <v>117</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G21" s="1">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.58699999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료.xlsx
+++ b/참고자료.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongb\OneDrive\바탕 화면\AI_Spark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DE4577-1EC1-48BD-930E-AD4AE2A736BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A77C36-FB29-400E-A868-DA041FBE3229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="5" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4A7E4D6D-AABA-4776-A1A1-FC25F4A56056}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>SSE는 군집내의 최소화는 고려하고 있으나 군집간의 거리 최소화는 고려하지 않는 한계  -&gt; 극복 : 실루엣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>test_silhouette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_pressure 다시 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CAFD36-8EEE-4015-BF4C-7F975B82DF24}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>0.82040000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>0.71870000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>0.76959999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +1971,7 @@
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.1</v>
       </c>
@@ -1988,6 +1992,32 @@
       </c>
       <c r="I21" s="1">
         <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1">
+        <v>945</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>581</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
